--- a/biology/Médecine/Ray_Farquharson/Ray_Farquharson.xlsx
+++ b/biology/Médecine/Ray_Farquharson/Ray_Farquharson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray Fletcher Farquharson, né le 4 août 1897 à Claude et mort le 1er juin 1965 à Ottawa, est un médecin, professeur d'université et chercheur canadien[2].
-Il a étudié puis enseigné à l'université de Toronto la majeure partie de sa vie et a été formé et employé au Toronto General Hospital. Il a servi dans la Première et Seconde Guerre mondiale, y obtenant lors de la dernière une nomination comme membre de l'Ordre de l'Empire britannique pour son travail médical. Avec le chercheur Arthur Squires, Farquharson est responsable de la découverte du « phénomène Farquharson », un principe important de l'endocrinologie[2].
-Farquharson a été fortement impliqué dans la recherche médicale canadienne. En tant que membre du Conseil national de recherches Canada, son rapport (dit « rapport Farquharson ») a conduit à la création du Canadian Institutes of Health Research dont il fut le premier président. Il a reçu de nombreux diplômes honorifiques d'universités canadiennes et a siégé au premier conseil des gouverneurs (Board of Governors) de l'université York[2].
-En 1998, Farquharson a été intronisé à titre posthume au Temple de la renommée médicale canadienne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray Fletcher Farquharson, né le 4 août 1897 à Claude et mort le 1er juin 1965 à Ottawa, est un médecin, professeur d'université et chercheur canadien.
+Il a étudié puis enseigné à l'université de Toronto la majeure partie de sa vie et a été formé et employé au Toronto General Hospital. Il a servi dans la Première et Seconde Guerre mondiale, y obtenant lors de la dernière une nomination comme membre de l'Ordre de l'Empire britannique pour son travail médical. Avec le chercheur Arthur Squires, Farquharson est responsable de la découverte du « phénomène Farquharson », un principe important de l'endocrinologie.
+Farquharson a été fortement impliqué dans la recherche médicale canadienne. En tant que membre du Conseil national de recherches Canada, son rapport (dit « rapport Farquharson ») a conduit à la création du Canadian Institutes of Health Research dont il fut le premier président. Il a reçu de nombreux diplômes honorifiques d'universités canadiennes et a siégé au premier conseil des gouverneurs (Board of Governors) de l'université York.
+En 1998, Farquharson a été intronisé à titre posthume au Temple de la renommée médicale canadienne.
 </t>
         </is>
       </c>
